--- a/DatosPrueba.xlsx
+++ b/DatosPrueba.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaquin\Desktop\Constituyente\trabajoconstituyente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A91B9-CF99-40D9-9E8A-2F99D912744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -499,8 +505,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +516,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -552,22 +566,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -609,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,9 +664,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,6 +716,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,1715 +909,1722 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:E158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="D3" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="1">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="s">
+      <c r="C35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
+      <c r="C37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="E40" t="s">
+      <c r="C38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="D43" t="s">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
+      <c r="C44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
-      <c r="C50" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="E50" t="s">
+      <c r="C48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
-      <c r="C51" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
-      <c r="C53" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
-      <c r="C54" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="D54" t="s">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
+      <c r="C52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
-      <c r="C55" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
-      <c r="C56" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="D56" t="s">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="E56" t="s">
+      <c r="C54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
-      <c r="C57" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="E57" t="s">
+      <c r="C55" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="3:5">
-      <c r="C58" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="D58" t="s">
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
-      <c r="C59" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="E59" t="s">
+      <c r="C57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
-      <c r="C60" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="E60" t="s">
+      <c r="C58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
-      <c r="C61" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
-      <c r="C62" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="D62" t="s">
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="E62" t="s">
+      <c r="C60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
-      <c r="C63" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="D63" t="s">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="E63" t="s">
+      <c r="C61" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="3:5">
-      <c r="C64" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="D64" t="s">
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="D65" t="s">
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="E65" t="s">
+      <c r="C63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="D66" t="s">
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="E66" t="s">
+      <c r="C64" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="D67" t="s">
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="E67" t="s">
+      <c r="C65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="3:5">
-      <c r="C68" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="3:5">
-      <c r="C69" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="E69" t="s">
+      <c r="C67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="3:5">
-      <c r="C70" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="D70" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="E70" t="s">
+      <c r="C68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="D71" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="E71" t="s">
+      <c r="C69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="D72" t="s">
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="E72" t="s">
+      <c r="C70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="3:5">
-      <c r="C73" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="E73" t="s">
+      <c r="C71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="3:5">
-      <c r="C74" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="D74" t="s">
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="E74" t="s">
+      <c r="C72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="D75" t="s">
+      <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="E75" t="s">
+      <c r="C73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="E76" t="s">
+      <c r="C74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="3:5">
-      <c r="C77" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="E77" t="s">
+      <c r="C75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="3:5">
-      <c r="C78" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="D78" t="s">
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="E78" t="s">
+      <c r="C76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="3:5">
-      <c r="C79" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="E79" t="s">
+      <c r="C77" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="3:5">
-      <c r="C80" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="D80" t="s">
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="E80" t="s">
+      <c r="C78" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
-      <c r="C81" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="D81" t="s">
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="E81" t="s">
+      <c r="C79" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
-      <c r="C82" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="D82" t="s">
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="E82" t="s">
+      <c r="C80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
-      <c r="C83" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="E83" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
-      <c r="C84" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="D84" t="s">
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="E84" t="s">
+      <c r="C82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
-      <c r="C85" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="D85" t="s">
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="E85" t="s">
+      <c r="C83" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
-      <c r="C86" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="D86" t="s">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="E86" t="s">
+      <c r="C84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
-      <c r="C87" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="D87" t="s">
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="E87" t="s">
+      <c r="C85" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
-      <c r="C88" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="E88" t="s">
+      <c r="C86" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
-      <c r="C89" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="D89" t="s">
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C87" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
-      <c r="C90" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="E90" t="s">
+      <c r="C88" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
-      <c r="C91" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="D91" t="s">
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="E91" t="s">
+      <c r="C89" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
-      <c r="C92" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="D92" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="E92" t="s">
+      <c r="C90" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
-      <c r="C93" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="D93" t="s">
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="E93" t="s">
+      <c r="C91" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
-      <c r="C94" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="D94" t="s">
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="E94" t="s">
+      <c r="C92" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
-      <c r="C95" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="D95" t="s">
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="E95" t="s">
+      <c r="C93" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
-      <c r="C96" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="D96" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="E96" t="s">
+      <c r="C94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
-      <c r="C97" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="E97" t="s">
+      <c r="C95" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
-      <c r="C98" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="D98" t="s">
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="E98" t="s">
+      <c r="C96" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
-      <c r="C99" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="D99" t="s">
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="E99" t="s">
+      <c r="C97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
-      <c r="C100" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="D100" t="s">
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="E100" t="s">
+      <c r="C98" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
-      <c r="C101" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="D101" t="s">
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C99" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
-      <c r="C102" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="D102" t="s">
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="E102" t="s">
+      <c r="C100" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
-      <c r="C103" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="D103" t="s">
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="E103" t="s">
+      <c r="C101" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
-      <c r="C104" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="D104" t="s">
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="E104" t="s">
+      <c r="C102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
-      <c r="C105" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="D105" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="D106" t="s">
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="E106" t="s">
+      <c r="C104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
-      <c r="C107" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="D107" t="s">
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="E107" t="s">
+      <c r="C105" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
-      <c r="C108" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="D108" t="s">
+      <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="E108" t="s">
+      <c r="C106" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
-      <c r="C109" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="E109" t="s">
+      <c r="C107" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
-      <c r="C110" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="D110" t="s">
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="E110" t="s">
+      <c r="C108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
-      <c r="C111" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B109" t="s">
         <v>109</v>
       </c>
-      <c r="E111" t="s">
+      <c r="C109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="3:5">
-      <c r="C112" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="D112" t="s">
+      <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="E112" t="s">
+      <c r="C110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
-      <c r="C113" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="D113" t="s">
+      <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="E113" t="s">
+      <c r="C111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
-      <c r="C114" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="D114" t="s">
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="E114" t="s">
+      <c r="C112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
-      <c r="C115" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="D115" t="s">
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="E115" t="s">
+      <c r="C113" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
-      <c r="C116" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="E116" t="s">
+      <c r="C114" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
-      <c r="C117" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="D117" t="s">
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="E117" t="s">
+      <c r="C115" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
-      <c r="C118" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="D118" t="s">
+      <c r="B116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
-      <c r="C119" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="D119" t="s">
+      <c r="B117" t="s">
         <v>117</v>
       </c>
-      <c r="E119" t="s">
+      <c r="C117" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
-      <c r="C120" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="D120" t="s">
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="E120" t="s">
+      <c r="C118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
-      <c r="C121" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="D121" t="s">
+      <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="E121" t="s">
+      <c r="C119" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
-      <c r="C122" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="D122" t="s">
+      <c r="B120" t="s">
         <v>120</v>
       </c>
-      <c r="E122" t="s">
+      <c r="C120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
-      <c r="C123" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="D123" t="s">
+      <c r="B121" t="s">
         <v>121</v>
       </c>
-      <c r="E123" t="s">
+      <c r="C121" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
-      <c r="C124" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="D124" t="s">
+      <c r="B122" t="s">
         <v>122</v>
       </c>
-      <c r="E124" t="s">
+      <c r="C122" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
-      <c r="C125" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="D125" t="s">
+      <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="E125" t="s">
+      <c r="C123" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
-      <c r="C126" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B124" t="s">
         <v>124</v>
       </c>
-      <c r="E126" t="s">
+      <c r="C124" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
-      <c r="C127" s="1">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="D127" t="s">
+      <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="E127" t="s">
+      <c r="C125" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
-      <c r="C128" s="1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="D128" t="s">
+      <c r="B126" t="s">
         <v>126</v>
       </c>
-      <c r="E128" t="s">
+      <c r="C126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
-      <c r="C129" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="D129" t="s">
+      <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="E129" t="s">
+      <c r="C127" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
-      <c r="C130" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="D130" t="s">
+      <c r="B128" t="s">
         <v>128</v>
       </c>
-      <c r="E130" t="s">
+      <c r="C128" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
-      <c r="C131" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="D131" t="s">
+      <c r="B129" t="s">
         <v>129</v>
       </c>
-      <c r="E131" t="s">
+      <c r="C129" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
-      <c r="C132" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B130" t="s">
         <v>130</v>
       </c>
-      <c r="E132" t="s">
+      <c r="C130" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
-      <c r="C133" s="1">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="D133" t="s">
+      <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="E133" t="s">
+      <c r="C131" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
-      <c r="C134" s="1">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B132" t="s">
         <v>132</v>
       </c>
-      <c r="E134" t="s">
+      <c r="C132" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="3:5">
-      <c r="C135" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="3:5">
-      <c r="C136" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="D136" t="s">
+      <c r="B134" t="s">
         <v>134</v>
       </c>
-      <c r="E136" t="s">
+      <c r="C134" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
-      <c r="C137" s="1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="D137" t="s">
+      <c r="B135" t="s">
         <v>135</v>
       </c>
-      <c r="E137" t="s">
+      <c r="C135" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
-      <c r="C138" s="1">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B136" t="s">
         <v>136</v>
       </c>
-      <c r="E138" t="s">
+      <c r="C136" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="3:5">
-      <c r="C139" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="D139" t="s">
+      <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="E139" t="s">
+      <c r="C137" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="3:5">
-      <c r="C140" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="D140" t="s">
+      <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="E140" t="s">
+      <c r="C138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="3:5">
-      <c r="C141" s="1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="D141" t="s">
+      <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="E141" t="s">
+      <c r="C139" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="3:5">
-      <c r="C142" s="1">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="D142" t="s">
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="E142" t="s">
+      <c r="C140" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="3:5">
-      <c r="C143" s="1">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="D143" t="s">
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="E143" t="s">
+      <c r="C141" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="3:5">
-      <c r="C144" s="1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="D144" t="s">
+      <c r="B142" t="s">
         <v>142</v>
       </c>
-      <c r="E144" t="s">
+      <c r="C142" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="3:5">
-      <c r="C145" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="D145" t="s">
+      <c r="B143" t="s">
         <v>143</v>
       </c>
-      <c r="E145" t="s">
+      <c r="C143" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="3:5">
-      <c r="C146" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="D146" t="s">
+      <c r="B144" t="s">
         <v>144</v>
       </c>
-      <c r="E146" t="s">
+      <c r="C144" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="3:5">
-      <c r="C147" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="D147" t="s">
+      <c r="B145" t="s">
         <v>145</v>
       </c>
-      <c r="E147" t="s">
+      <c r="C145" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
-      <c r="C148" s="1">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="D148" t="s">
+      <c r="B146" t="s">
         <v>146</v>
       </c>
-      <c r="E148" t="s">
+      <c r="C146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
-      <c r="C149" s="1">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="D149" t="s">
+      <c r="B147" t="s">
         <v>147</v>
       </c>
-      <c r="E149" t="s">
+      <c r="C147" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="3:5">
-      <c r="C150" s="1">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="D150" t="s">
+      <c r="B148" t="s">
         <v>148</v>
       </c>
-      <c r="E150" t="s">
+      <c r="C148" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="3:5">
-      <c r="C151" s="1">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="D151" t="s">
+      <c r="B149" t="s">
         <v>149</v>
       </c>
-      <c r="E151" t="s">
+      <c r="C149" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="3:5">
-      <c r="C152" s="1">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="D152" t="s">
+      <c r="B150" t="s">
         <v>150</v>
       </c>
-      <c r="E152" t="s">
+      <c r="C150" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="3:5">
-      <c r="C153" s="1">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="D153" t="s">
+      <c r="B151" t="s">
         <v>151</v>
       </c>
-      <c r="E153" t="s">
+      <c r="C151" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="3:5">
-      <c r="C154" s="1">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="D154" t="s">
+      <c r="B152" t="s">
         <v>152</v>
       </c>
-      <c r="E154" t="s">
+      <c r="C152" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="3:5">
-      <c r="C155" s="1">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="D155" t="s">
+      <c r="B153" t="s">
         <v>153</v>
       </c>
-      <c r="E155" t="s">
+      <c r="C153" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="156" spans="3:5">
-      <c r="C156" s="1">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B154" t="s">
         <v>154</v>
       </c>
-      <c r="E156" t="s">
+      <c r="C154" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="3:5">
-      <c r="C157" s="1">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="D157" t="s">
+      <c r="B155" t="s">
         <v>155</v>
       </c>
-      <c r="E157" t="s">
+      <c r="C155" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="3:5">
-      <c r="C158" s="1">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="D158" t="s">
+      <c r="B156" t="s">
         <v>156</v>
       </c>
-      <c r="E158" t="s">
+      <c r="C156" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DatosPrueba.xlsx
+++ b/DatosPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaquin\Desktop\Constituyente\trabajoconstituyente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A91B9-CF99-40D9-9E8A-2F99D912744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8CE2CF-AB6E-405D-9BF8-BBE954169298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,16 +910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1094,7 +1091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1160,7 +1157,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1193,7 +1190,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1204,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1215,7 +1212,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1247,9 +1244,8 @@
       <c r="C30" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1260,7 +1256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1388,6 +1384,7 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">

--- a/DatosPrueba.xlsx
+++ b/DatosPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaquin\Desktop\Constituyente\trabajoconstituyente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8CE2CF-AB6E-405D-9BF8-BBE954169298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C1CC6-C7F6-4D38-A00A-A53EC928103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1065" yWindow="405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,14 +516,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -566,12 +558,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1384,7 +1375,6 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2622,6 +2612,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>